--- a/irm_final_evaluation/to_review.xlsx
+++ b/irm_final_evaluation/to_review.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\fmny\fc-performeter\irm_final_evaluation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\myagh\fc-performeter\irm_final_evaluation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD0EE05B-9C2F-4D21-BA96-F57C9AD20874}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C4FBC3B-D5EE-4947-87F9-2A421700A4EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="3" r:id="rId1"/>
@@ -5868,13 +5868,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{578515BA-F432-441C-9E34-905977A3B74A}">
   <dimension ref="A1:DS101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AM1" workbookViewId="0">
-      <selection activeCell="BF8" sqref="BF8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AM1" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:123" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:123" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>76</v>
       </c>
@@ -6242,7 +6242,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="2" spans="1:123" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:123" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -6565,7 +6565,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:123" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:123" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -6888,7 +6888,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:123" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:123" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -7211,7 +7211,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:123" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:123" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -7534,7 +7534,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:123" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:123" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -7857,7 +7857,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:123" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:123" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -8177,7 +8177,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:123" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:123" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -8494,7 +8494,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:123" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:123" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -8817,7 +8817,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:123" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:123" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -9140,7 +9140,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:123" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:123" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -9463,7 +9463,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:123" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:123" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -9786,7 +9786,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:123" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:123" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -10106,7 +10106,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:123" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:123" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
@@ -10429,7 +10429,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:123" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:123" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
@@ -10752,7 +10752,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:123" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:123" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
@@ -11072,7 +11072,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:123" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:123" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
@@ -11395,7 +11395,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:123" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:123" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
@@ -11718,7 +11718,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:123" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:123" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
@@ -12041,7 +12041,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:123" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:123" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
@@ -12364,7 +12364,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:123" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:123" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
@@ -12687,7 +12687,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:123" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:123" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
@@ -13010,7 +13010,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:123" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:123" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>21</v>
       </c>
@@ -13327,7 +13327,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:123" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:123" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>22</v>
       </c>
@@ -13650,7 +13650,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:123" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:123" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>23</v>
       </c>
@@ -13970,7 +13970,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:123" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:123" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>24</v>
       </c>
@@ -14290,7 +14290,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:123" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:123" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>25</v>
       </c>
@@ -14613,7 +14613,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:123" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:123" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>26</v>
       </c>
@@ -14936,7 +14936,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:123" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:123" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>27</v>
       </c>
@@ -15256,7 +15256,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:123" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:123" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>28</v>
       </c>
@@ -15579,7 +15579,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:123" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:123" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>29</v>
       </c>
@@ -15902,7 +15902,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:123" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:123" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>30</v>
       </c>
@@ -16225,7 +16225,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:123" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:123" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>31</v>
       </c>
@@ -16548,7 +16548,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:123" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:123" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>32</v>
       </c>
@@ -16871,7 +16871,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:123" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:123" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>33</v>
       </c>
@@ -17194,7 +17194,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:123" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:123" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>34</v>
       </c>
@@ -17517,7 +17517,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:123" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:123" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>35</v>
       </c>
@@ -17840,7 +17840,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:123" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:123" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>36</v>
       </c>
@@ -18160,7 +18160,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:123" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:123" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>37</v>
       </c>
@@ -18483,7 +18483,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:123" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:123" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>38</v>
       </c>
@@ -18806,7 +18806,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:123" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:123" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>39</v>
       </c>
@@ -19129,7 +19129,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:123" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:123" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>40</v>
       </c>
@@ -19452,7 +19452,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:123" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:123" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>41</v>
       </c>
@@ -19775,7 +19775,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:123" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:123" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>42</v>
       </c>
@@ -20098,7 +20098,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:123" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:123" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>43</v>
       </c>
@@ -20421,7 +20421,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:123" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:123" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>44</v>
       </c>
@@ -20744,7 +20744,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:123" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:123" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>45</v>
       </c>
@@ -21067,7 +21067,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:123" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:123" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>46</v>
       </c>
@@ -21390,7 +21390,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:123" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:123" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>47</v>
       </c>
@@ -21710,7 +21710,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:123" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:123" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>48</v>
       </c>
@@ -22033,7 +22033,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:123" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:123" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>49</v>
       </c>
@@ -22356,7 +22356,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:123" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:123" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>50</v>
       </c>
@@ -22679,7 +22679,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:123" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:123" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>51</v>
       </c>
@@ -22999,7 +22999,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:123" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:123" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>52</v>
       </c>
@@ -23322,7 +23322,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:123" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:123" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>53</v>
       </c>
@@ -23645,7 +23645,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:123" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:123" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>54</v>
       </c>
@@ -23968,7 +23968,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:123" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:123" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>55</v>
       </c>
@@ -24291,7 +24291,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="1:123" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:123" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>56</v>
       </c>
@@ -24614,7 +24614,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:123" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:123" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>57</v>
       </c>
@@ -24937,7 +24937,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:123" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:123" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>58</v>
       </c>
@@ -25260,7 +25260,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:123" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:123" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>59</v>
       </c>
@@ -25583,7 +25583,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:123" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:123" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>60</v>
       </c>
@@ -25906,7 +25906,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:123" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:123" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>61</v>
       </c>
@@ -26229,7 +26229,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="1:123" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:123" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>62</v>
       </c>
@@ -26552,7 +26552,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="1:123" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:123" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>63</v>
       </c>
@@ -26875,7 +26875,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="1:123" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:123" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>64</v>
       </c>
@@ -27198,7 +27198,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="67" spans="1:123" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:123" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>65</v>
       </c>
@@ -27521,7 +27521,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="1:123" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:123" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>66</v>
       </c>
@@ -27844,7 +27844,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="1:123" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:123" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>67</v>
       </c>
@@ -28167,7 +28167,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="1:123" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:123" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>68</v>
       </c>
@@ -28490,7 +28490,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="1:123" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:123" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>69</v>
       </c>
@@ -28813,7 +28813,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="1:123" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:123" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>70</v>
       </c>
@@ -29136,7 +29136,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="73" spans="1:123" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:123" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>71</v>
       </c>
@@ -29459,7 +29459,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="74" spans="1:123" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:123" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>72</v>
       </c>
@@ -29782,7 +29782,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="75" spans="1:123" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:123" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>73</v>
       </c>
@@ -30105,7 +30105,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="76" spans="1:123" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:123" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>74</v>
       </c>
@@ -30428,7 +30428,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="77" spans="1:123" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:123" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>75</v>
       </c>
@@ -30748,7 +30748,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="78" spans="1:123" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:123" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>76</v>
       </c>
@@ -31071,7 +31071,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="79" spans="1:123" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:123" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>77</v>
       </c>
@@ -31394,7 +31394,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="80" spans="1:123" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:123" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>78</v>
       </c>
@@ -31717,7 +31717,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="81" spans="1:123" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:123" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>79</v>
       </c>
@@ -32040,7 +32040,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="82" spans="1:123" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:123" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>80</v>
       </c>
@@ -32363,7 +32363,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="83" spans="1:123" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:123" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>81</v>
       </c>
@@ -32686,7 +32686,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="84" spans="1:123" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:123" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>82</v>
       </c>
@@ -33006,7 +33006,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="85" spans="1:123" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:123" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>83</v>
       </c>
@@ -33329,7 +33329,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="86" spans="1:123" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:123" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>84</v>
       </c>
@@ -33646,7 +33646,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="87" spans="1:123" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:123" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>85</v>
       </c>
@@ -33969,7 +33969,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="88" spans="1:123" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:123" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>86</v>
       </c>
@@ -34289,7 +34289,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="89" spans="1:123" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:123" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>87</v>
       </c>
@@ -34612,7 +34612,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="90" spans="1:123" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:123" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>88</v>
       </c>
@@ -34935,7 +34935,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="91" spans="1:123" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:123" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>89</v>
       </c>
@@ -35258,7 +35258,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="92" spans="1:123" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:123" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>90</v>
       </c>
@@ -35578,7 +35578,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="93" spans="1:123" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:123" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>91</v>
       </c>
@@ -35898,7 +35898,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="94" spans="1:123" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:123" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>92</v>
       </c>
@@ -36221,7 +36221,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="95" spans="1:123" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:123" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>93</v>
       </c>
@@ -36544,7 +36544,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="96" spans="1:123" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:123" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>94</v>
       </c>
@@ -36867,7 +36867,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="97" spans="1:123" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:123" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>95</v>
       </c>
@@ -37190,7 +37190,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="98" spans="1:123" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:123" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>96</v>
       </c>
@@ -37513,7 +37513,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="99" spans="1:123" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:123" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>97</v>
       </c>
@@ -37836,7 +37836,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="100" spans="1:123" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:123" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>98</v>
       </c>
@@ -38159,7 +38159,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="101" spans="1:123" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:123" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>99</v>
       </c>
@@ -38488,13 +38488,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DF31140-B7A9-494B-946A-0FF1D75ECC21}">
   <dimension ref="A1:BY101"/>
   <sheetViews>
-    <sheetView topLeftCell="AA1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="AA1" workbookViewId="0">
       <selection activeCell="AU1" sqref="AU1:AU1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:77" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -38724,7 +38724,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -38957,7 +38957,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -39190,7 +39190,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -39423,7 +39423,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -39656,7 +39656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -39889,7 +39889,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -40119,7 +40119,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -40346,7 +40346,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -40579,7 +40579,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -40812,7 +40812,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -41045,7 +41045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -41278,7 +41278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -41508,7 +41508,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
@@ -41741,7 +41741,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
@@ -41974,7 +41974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
@@ -42204,7 +42204,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
@@ -42437,7 +42437,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
@@ -42670,7 +42670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
@@ -42903,7 +42903,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
@@ -43136,7 +43136,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
@@ -43369,7 +43369,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
@@ -43602,7 +43602,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>21</v>
       </c>
@@ -43829,7 +43829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>22</v>
       </c>
@@ -44062,7 +44062,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>23</v>
       </c>
@@ -44292,7 +44292,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>24</v>
       </c>
@@ -44522,7 +44522,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>25</v>
       </c>
@@ -44755,7 +44755,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>26</v>
       </c>
@@ -44988,7 +44988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>27</v>
       </c>
@@ -45218,7 +45218,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>28</v>
       </c>
@@ -45451,7 +45451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>29</v>
       </c>
@@ -45684,7 +45684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>30</v>
       </c>
@@ -45917,7 +45917,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>31</v>
       </c>
@@ -46150,7 +46150,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>32</v>
       </c>
@@ -46383,7 +46383,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>33</v>
       </c>
@@ -46616,7 +46616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>34</v>
       </c>
@@ -46849,7 +46849,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>35</v>
       </c>
@@ -47082,7 +47082,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>36</v>
       </c>
@@ -47312,7 +47312,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>37</v>
       </c>
@@ -47545,7 +47545,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>38</v>
       </c>
@@ -47778,7 +47778,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>39</v>
       </c>
@@ -48011,7 +48011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>40</v>
       </c>
@@ -48244,7 +48244,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>41</v>
       </c>
@@ -48477,7 +48477,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>42</v>
       </c>
@@ -48710,7 +48710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>43</v>
       </c>
@@ -48943,7 +48943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>44</v>
       </c>
@@ -49176,7 +49176,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>45</v>
       </c>
@@ -49409,7 +49409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>46</v>
       </c>
@@ -49642,7 +49642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>47</v>
       </c>
@@ -49872,7 +49872,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>48</v>
       </c>
@@ -50105,7 +50105,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>49</v>
       </c>
@@ -50338,7 +50338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>50</v>
       </c>
@@ -50571,7 +50571,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>51</v>
       </c>
@@ -50801,7 +50801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>52</v>
       </c>
@@ -51034,7 +51034,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>53</v>
       </c>
@@ -51267,7 +51267,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>54</v>
       </c>
@@ -51500,7 +51500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>55</v>
       </c>
@@ -51733,7 +51733,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>56</v>
       </c>
@@ -51966,7 +51966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>57</v>
       </c>
@@ -52199,7 +52199,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>58</v>
       </c>
@@ -52432,7 +52432,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>59</v>
       </c>
@@ -52665,7 +52665,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>60</v>
       </c>
@@ -52898,7 +52898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>61</v>
       </c>
@@ -53131,7 +53131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>62</v>
       </c>
@@ -53364,7 +53364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>63</v>
       </c>
@@ -53597,7 +53597,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>64</v>
       </c>
@@ -53830,7 +53830,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>65</v>
       </c>
@@ -54063,7 +54063,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>66</v>
       </c>
@@ -54296,7 +54296,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>67</v>
       </c>
@@ -54529,7 +54529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>68</v>
       </c>
@@ -54762,7 +54762,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>69</v>
       </c>
@@ -54995,7 +54995,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>70</v>
       </c>
@@ -55228,7 +55228,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>71</v>
       </c>
@@ -55461,7 +55461,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>72</v>
       </c>
@@ -55694,7 +55694,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>73</v>
       </c>
@@ -55927,7 +55927,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="76" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>74</v>
       </c>
@@ -56160,7 +56160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>75</v>
       </c>
@@ -56390,7 +56390,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>76</v>
       </c>
@@ -56623,7 +56623,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>77</v>
       </c>
@@ -56856,7 +56856,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>78</v>
       </c>
@@ -57089,7 +57089,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>79</v>
       </c>
@@ -57322,7 +57322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>80</v>
       </c>
@@ -57555,7 +57555,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>81</v>
       </c>
@@ -57788,7 +57788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>82</v>
       </c>
@@ -58018,7 +58018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>83</v>
       </c>
@@ -58251,7 +58251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>84</v>
       </c>
@@ -58478,7 +58478,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="87" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>85</v>
       </c>
@@ -58711,7 +58711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>86</v>
       </c>
@@ -58941,7 +58941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>87</v>
       </c>
@@ -59174,7 +59174,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>88</v>
       </c>
@@ -59407,7 +59407,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>89</v>
       </c>
@@ -59640,7 +59640,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="92" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>90</v>
       </c>
@@ -59870,7 +59870,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>91</v>
       </c>
@@ -60100,7 +60100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>92</v>
       </c>
@@ -60333,7 +60333,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>93</v>
       </c>
@@ -60566,7 +60566,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>94</v>
       </c>
@@ -60799,7 +60799,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>95</v>
       </c>
@@ -61032,7 +61032,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>96</v>
       </c>
@@ -61265,7 +61265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>97</v>
       </c>
@@ -61498,7 +61498,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>98</v>
       </c>
@@ -61731,7 +61731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>99</v>
       </c>
@@ -61974,51 +61974,51 @@
       <selection activeCell="AT1" sqref="AT1:AT1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.6328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.36328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.6328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="11" width="9" bestFit="1" customWidth="1"/>
     <col min="12" max="15" width="10" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.36328125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.42578125" bestFit="1" customWidth="1"/>
     <col min="17" max="18" width="10" bestFit="1" customWidth="1"/>
     <col min="19" max="21" width="9" bestFit="1" customWidth="1"/>
     <col min="22" max="26" width="10" bestFit="1" customWidth="1"/>
     <col min="27" max="29" width="9" bestFit="1" customWidth="1"/>
     <col min="30" max="32" width="10" bestFit="1" customWidth="1"/>
-    <col min="33" max="40" width="5.81640625" bestFit="1" customWidth="1"/>
-    <col min="41" max="45" width="8.36328125" bestFit="1" customWidth="1"/>
-    <col min="46" max="48" width="15.6328125" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="14.7265625" bestFit="1" customWidth="1"/>
-    <col min="51" max="53" width="14.08984375" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="15.81640625" bestFit="1" customWidth="1"/>
-    <col min="55" max="56" width="7.26953125" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="13.90625" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="11.08984375" bestFit="1" customWidth="1"/>
-    <col min="59" max="62" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="17.54296875" bestFit="1" customWidth="1"/>
-    <col min="64" max="66" width="8.1796875" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="8.26953125" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="7.7265625" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="16.453125" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="15.6328125" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="16.1796875" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="14.90625" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="6.08984375" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="16.54296875" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="6.36328125" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="33" max="40" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="41" max="45" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="46" max="48" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="51" max="53" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="55" max="56" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="59" max="62" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="64" max="66" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:77" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -62248,7 +62248,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -62463,7 +62463,7 @@
         <v>0.21099999999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -62678,7 +62678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -62893,7 +62893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -63108,7 +63108,7 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="6" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -63323,7 +63323,7 @@
         <v>0.308</v>
       </c>
     </row>
-    <row r="7" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -63538,7 +63538,7 @@
         <v>8.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -63546,7 +63546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -63761,7 +63761,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -63976,7 +63976,7 @@
         <v>0.56699999999999995</v>
       </c>
     </row>
-    <row r="11" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -64191,7 +64191,7 @@
         <v>0.52500000000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -64406,7 +64406,7 @@
         <v>0.10100000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -64621,7 +64621,7 @@
         <v>0.72399999999999998</v>
       </c>
     </row>
-    <row r="14" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -64836,7 +64836,7 @@
         <v>0.56399999999999995</v>
       </c>
     </row>
-    <row r="15" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -65051,7 +65051,7 @@
         <v>0.34100000000000003</v>
       </c>
     </row>
-    <row r="16" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -65266,7 +65266,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="17" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -65481,7 +65481,7 @@
         <v>0.215</v>
       </c>
     </row>
-    <row r="18" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -65696,7 +65696,7 @@
         <v>0.308</v>
       </c>
     </row>
-    <row r="19" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -65911,7 +65911,7 @@
         <v>0.99199999999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -66126,7 +66126,7 @@
         <v>0.80400000000000005</v>
       </c>
     </row>
-    <row r="21" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -66341,7 +66341,7 @@
         <v>0.74199999999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -66556,7 +66556,7 @@
         <v>0.38700000000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -66771,7 +66771,7 @@
         <v>0.95299999999999996</v>
       </c>
     </row>
-    <row r="24" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -66986,7 +66986,7 @@
         <v>0.27100000000000002</v>
       </c>
     </row>
-    <row r="25" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -67201,7 +67201,7 @@
         <v>1.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -67416,7 +67416,7 @@
         <v>7.2999999999999995E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -67631,7 +67631,7 @@
         <v>0.41899999999999998</v>
       </c>
     </row>
-    <row r="28" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -67846,7 +67846,7 @@
         <v>0.214</v>
       </c>
     </row>
-    <row r="29" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -68061,7 +68061,7 @@
         <v>0.60099999999999998</v>
       </c>
     </row>
-    <row r="30" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -68276,7 +68276,7 @@
         <v>0.214</v>
       </c>
     </row>
-    <row r="31" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -68491,7 +68491,7 @@
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -68706,7 +68706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>31</v>
       </c>
@@ -68921,7 +68921,7 @@
         <v>0.98599999999999999</v>
       </c>
     </row>
-    <row r="34" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>32</v>
       </c>
@@ -69136,7 +69136,7 @@
         <v>0.312</v>
       </c>
     </row>
-    <row r="35" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>33</v>
       </c>
@@ -69351,7 +69351,7 @@
         <v>0.86099999999999999</v>
       </c>
     </row>
-    <row r="36" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>34</v>
       </c>
@@ -69566,7 +69566,7 @@
         <v>0.64500000000000002</v>
       </c>
     </row>
-    <row r="37" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>35</v>
       </c>
@@ -69781,7 +69781,7 @@
         <v>0.83299999999999996</v>
       </c>
     </row>
-    <row r="38" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>36</v>
       </c>
@@ -69996,7 +69996,7 @@
         <v>0.20799999999999999</v>
       </c>
     </row>
-    <row r="39" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>37</v>
       </c>
@@ -70211,7 +70211,7 @@
         <v>0.49099999999999999</v>
       </c>
     </row>
-    <row r="40" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>38</v>
       </c>
@@ -70426,7 +70426,7 @@
         <v>0.97399999999999998</v>
       </c>
     </row>
-    <row r="41" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>39</v>
       </c>
@@ -70641,7 +70641,7 @@
         <v>0.97499999999999998</v>
       </c>
     </row>
-    <row r="42" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>40</v>
       </c>
@@ -70856,7 +70856,7 @@
         <v>0.23200000000000001</v>
       </c>
     </row>
-    <row r="43" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>41</v>
       </c>
@@ -71071,7 +71071,7 @@
         <v>0.65800000000000003</v>
       </c>
     </row>
-    <row r="44" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>42</v>
       </c>
@@ -71286,7 +71286,7 @@
         <v>0.21199999999999999</v>
       </c>
     </row>
-    <row r="45" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>43</v>
       </c>
@@ -71501,7 +71501,7 @@
         <v>0.23200000000000001</v>
       </c>
     </row>
-    <row r="46" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>44</v>
       </c>
@@ -71716,7 +71716,7 @@
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>45</v>
       </c>
@@ -71724,7 +71724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>46</v>
       </c>
@@ -71732,7 +71732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>47</v>
       </c>
@@ -71740,7 +71740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>48</v>
       </c>
@@ -71955,7 +71955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>49</v>
       </c>
@@ -71963,7 +71963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>50</v>
       </c>
@@ -72178,7 +72178,7 @@
         <v>0.156</v>
       </c>
     </row>
-    <row r="53" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>51</v>
       </c>
@@ -72393,7 +72393,7 @@
         <v>0.22500000000000001</v>
       </c>
     </row>
-    <row r="54" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>52</v>
       </c>
@@ -72608,7 +72608,7 @@
         <v>0.998</v>
       </c>
     </row>
-    <row r="55" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>53</v>
       </c>
@@ -72823,7 +72823,7 @@
         <v>0.96599999999999997</v>
       </c>
     </row>
-    <row r="56" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>54</v>
       </c>
@@ -73038,7 +73038,7 @@
         <v>0.97499999999999998</v>
       </c>
     </row>
-    <row r="57" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>55</v>
       </c>
@@ -73253,7 +73253,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="58" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>56</v>
       </c>
@@ -73468,7 +73468,7 @@
         <v>0.192</v>
       </c>
     </row>
-    <row r="59" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>57</v>
       </c>
@@ -73683,7 +73683,7 @@
         <v>0.26300000000000001</v>
       </c>
     </row>
-    <row r="60" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>58</v>
       </c>
@@ -73898,7 +73898,7 @@
         <v>0.318</v>
       </c>
     </row>
-    <row r="61" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>59</v>
       </c>
@@ -74113,7 +74113,7 @@
         <v>0.96699999999999997</v>
       </c>
     </row>
-    <row r="62" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>60</v>
       </c>
@@ -74328,7 +74328,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="63" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>61</v>
       </c>
@@ -74543,7 +74543,7 @@
         <v>0.67600000000000005</v>
       </c>
     </row>
-    <row r="64" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>62</v>
       </c>
@@ -74758,7 +74758,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="65" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>63</v>
       </c>
@@ -74766,7 +74766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>64</v>
       </c>
@@ -74981,7 +74981,7 @@
         <v>0.98099999999999998</v>
       </c>
     </row>
-    <row r="67" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>65</v>
       </c>
@@ -75196,7 +75196,7 @@
         <v>0.57399999999999995</v>
       </c>
     </row>
-    <row r="68" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>66</v>
       </c>
@@ -75411,7 +75411,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>67</v>
       </c>
@@ -75626,7 +75626,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>68</v>
       </c>
@@ -75841,7 +75841,7 @@
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>69</v>
       </c>
@@ -76056,7 +76056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>70</v>
       </c>
@@ -76271,7 +76271,7 @@
         <v>0.96799999999999997</v>
       </c>
     </row>
-    <row r="73" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>71</v>
       </c>
@@ -76486,7 +76486,7 @@
         <v>0.66500000000000004</v>
       </c>
     </row>
-    <row r="74" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>72</v>
       </c>
@@ -76701,7 +76701,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="75" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>73</v>
       </c>
@@ -76916,7 +76916,7 @@
         <v>0.14299999999999999</v>
       </c>
     </row>
-    <row r="76" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>74</v>
       </c>
@@ -77131,7 +77131,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="77" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>75</v>
       </c>
